--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MASSACHUSETTS_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MASSACHUSETTS_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C10">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C14">
@@ -688,14 +688,14 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="25">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C28">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C31">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C40">
@@ -971,7 +971,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1048,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="51">
@@ -1202,7 +1202,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C65">
@@ -1272,7 +1272,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C67">
@@ -1311,7 +1311,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C70">
@@ -1357,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="74">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C75">
@@ -1420,7 +1420,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C78">
@@ -1485,7 +1485,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C83">
@@ -1511,7 +1511,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C85">
@@ -1524,7 +1524,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C86">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1620,7 +1620,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C93">
@@ -1633,7 +1633,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C94">
@@ -1659,7 +1659,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C96">
@@ -1698,7 +1698,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C99">
@@ -1711,7 +1711,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C100">
@@ -1737,7 +1737,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C102">
@@ -1776,7 +1776,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C105">
@@ -1815,7 +1815,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C108">
@@ -1937,7 +1937,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C117">
@@ -2033,7 +2033,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C124">
@@ -2098,7 +2098,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C129">
@@ -2163,7 +2163,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C134">
@@ -2176,7 +2176,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C135">
@@ -2189,7 +2189,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C136">
@@ -2202,7 +2202,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C137">
@@ -2215,7 +2215,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C138">
@@ -2254,14 +2254,14 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="142">
@@ -2287,7 +2287,7 @@
         <v>48</v>
       </c>
       <c r="D143">
-        <v>0.09248554913294797</v>
+        <v>0.09248554913294796</v>
       </c>
     </row>
     <row r="144">
@@ -2576,7 +2576,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C165">
@@ -2589,7 +2589,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C166">
@@ -2697,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="D173">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="174">
@@ -2710,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="D174">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="175">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C175">
@@ -2734,20 +2734,20 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C176">
         <v>5</v>
       </c>
       <c r="D176">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C177">
@@ -2760,7 +2760,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C178">
@@ -2812,7 +2812,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C182">
@@ -2864,7 +2864,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C186">
@@ -2890,7 +2890,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C188">
@@ -3007,7 +3007,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C197">
@@ -3020,7 +3020,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C198">
@@ -3033,7 +3033,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C199">
@@ -3046,7 +3046,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C200">
@@ -3207,7 +3207,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C212">
@@ -3376,7 +3376,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C225">
@@ -3472,7 +3472,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C232">
@@ -3586,7 +3586,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C240">
@@ -3980,7 +3980,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C268">
@@ -4019,7 +4019,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C271">
@@ -4084,7 +4084,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C276">
@@ -4110,7 +4110,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C278">
@@ -4136,7 +4136,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C280">
@@ -4188,7 +4188,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C284">
@@ -4247,7 +4247,7 @@
         <v>5</v>
       </c>
       <c r="D288">
-        <v>0.009633911368015413</v>
+        <v>0.009633911368015412</v>
       </c>
     </row>
     <row r="289">
@@ -4349,41 +4349,6 @@
       </c>
       <c r="D295">
         <v>1</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MASSACHUSETTS_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MASSACHUSETTS_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -956,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1143,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>León</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -1696,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1709,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1722,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1735,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -1748,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -1813,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1826,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -1852,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1883,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -1896,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1909,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1922,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1935,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Nopala De Villagrán</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2005,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -2018,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Atenguillo</t>
@@ -2031,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -2044,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -2057,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -2083,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Chiquilistlán</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -2148,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -2161,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2226,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2239,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Cherán</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Tingambato</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2517,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -2530,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2561,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -2574,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -2587,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -2600,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -2613,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -2626,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2657,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -2670,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2701,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2732,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -2745,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -2758,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2771,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -2784,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -2797,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -2810,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2823,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>San Jerónimo Coatlán</t>
@@ -2836,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -2849,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -2862,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -2875,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec - Distr. 22 -</t>
@@ -2888,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -2901,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>San Pedro Yólox</t>
@@ -2914,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>San Sebastián Coatlán</t>
@@ -2927,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -2940,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -2953,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -2966,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -2979,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Santo Domingo Tomaltepec</t>
@@ -2992,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -3005,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Tamazulápam Del Espíritu Santo</t>
@@ -3018,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -3031,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3044,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -3057,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3088,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -3101,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -3114,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -3127,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -3140,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -3153,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -3166,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -3179,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3192,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3205,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -3218,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -3231,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -3244,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3257,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>San Jerónimo Xayacatlán</t>
@@ -3270,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -3283,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3296,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -3309,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -3322,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -3335,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Tlaltenango</t>
@@ -3348,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -3361,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -3374,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Tuzamapan De Galeana</t>
@@ -3387,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Tzicatlacoyan</t>
@@ -3400,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -3413,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3444,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -3457,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -3470,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -3483,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3514,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3545,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Huehuetlán</t>
@@ -3558,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3571,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3584,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -3597,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3628,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3659,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -3672,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -3685,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Quiriego</t>
@@ -3698,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3729,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -3742,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3773,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -3786,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -3799,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3830,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -3843,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3856,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -3869,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3900,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -3913,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -3926,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Chumatlán</t>
@@ -3939,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -3952,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Colipa</t>
@@ -3965,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -3978,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -3991,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -4004,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -4017,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -4030,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -4043,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -4056,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -4069,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -4082,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -4095,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -4108,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Nanchital De Lázaro Cárdenas Del Río</t>
@@ -4121,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -4134,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -4147,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -4160,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -4173,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -4186,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -4199,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -4212,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -4225,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -4238,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4251,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -4264,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4295,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4326,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Total</t>
